--- a/biology/Botanique/Mallee/Mallee.xlsx
+++ b/biology/Botanique/Mallee/Mallee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>En Australie, un mallee (terme anglophone, d'origine aborigène), désigne tout arbre ou arbuste qui pousse en émettant de nombreuses tiges à partir du sol et d'une hauteur inférieure à 10 m. Leur apparence est celle d'un buisson de grande taille.
 Parmi ces espèces on trouve des membres des genres Eucalyptus, Acacia et Melaleuca. C'est le cas notamment des espèces portant les noms communs anglais suivants :
